--- a/Excel/Analysis.xlsx
+++ b/Excel/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A010C3-2AD9-4760-9E16-B9BBA713831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCEF97A-86FF-4A8C-B0BD-59EF9B7DA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisTable" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1500</v>
+        <v>8333</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>516</v>
+        <v>8416</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>266</v>
+        <v>8500</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>137</v>
+        <v>8583</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>141</v>
+        <v>8666</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>145</v>
+        <v>8750</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>149</v>
+        <v>8833</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>153</v>
+        <v>8916</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>157</v>
+        <v>9000</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>161</v>
+        <v>9083</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>165</v>
+        <v>9166</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>169</v>
+        <v>9250</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>173</v>
+        <v>9333</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>177</v>
+        <v>9416</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>181</v>
+        <v>9500</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>185</v>
+        <v>9583</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -837,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>189</v>
+        <v>9666</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>193</v>
+        <v>9750</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>197</v>
+        <v>9833</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>201</v>
+        <v>9916</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -929,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>205</v>
+        <v>10000</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -952,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>209</v>
+        <v>10083</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>213</v>
+        <v>10166</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="F25">
-        <v>217</v>
+        <v>10250</v>
       </c>
       <c r="G25">
         <v>24</v>
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>221</v>
+        <v>10333</v>
       </c>
       <c r="G26">
         <v>25</v>
@@ -1044,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>225</v>
+        <v>10416</v>
       </c>
       <c r="G27">
         <v>26</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="F28">
-        <v>229</v>
+        <v>10500</v>
       </c>
       <c r="G28">
         <v>27</v>
@@ -1090,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>233</v>
+        <v>10583</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>237</v>
+        <v>10666</v>
       </c>
       <c r="G30">
         <v>29</v>
@@ -1136,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>241</v>
+        <v>10750</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>245</v>
+        <v>10833</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <v>249</v>
+        <v>10916</v>
       </c>
       <c r="G33">
         <v>32</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="F34">
-        <v>253</v>
+        <v>11000</v>
       </c>
       <c r="G34">
         <v>33</v>
@@ -1228,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="F35">
-        <v>257</v>
+        <v>11083</v>
       </c>
       <c r="G35">
         <v>34</v>
@@ -1251,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="F36">
-        <v>261</v>
+        <v>11166</v>
       </c>
       <c r="G36">
         <v>35</v>
@@ -1274,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="F37">
-        <v>265</v>
+        <v>11250</v>
       </c>
       <c r="G37">
         <v>36</v>
@@ -1297,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="F38">
-        <v>269</v>
+        <v>11333</v>
       </c>
       <c r="G38">
         <v>37</v>
@@ -1320,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>273</v>
+        <v>11416</v>
       </c>
       <c r="G39">
         <v>38</v>
@@ -1343,7 +1343,7 @@
         <v>17</v>
       </c>
       <c r="F40">
-        <v>277</v>
+        <v>11500</v>
       </c>
       <c r="G40">
         <v>39</v>
@@ -1366,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>281</v>
+        <v>11583</v>
       </c>
       <c r="G41">
         <v>40</v>
@@ -1389,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="F42">
-        <v>285</v>
+        <v>11666</v>
       </c>
       <c r="G42">
         <v>41</v>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="F43">
-        <v>289</v>
+        <v>11750</v>
       </c>
       <c r="G43">
         <v>42</v>
@@ -1435,7 +1435,7 @@
         <v>21</v>
       </c>
       <c r="F44">
-        <v>293</v>
+        <v>11833</v>
       </c>
       <c r="G44">
         <v>43</v>
@@ -1458,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>297</v>
+        <v>11916</v>
       </c>
       <c r="G45">
         <v>44</v>
@@ -1481,7 +1481,7 @@
         <v>24</v>
       </c>
       <c r="F46">
-        <v>301</v>
+        <v>12000</v>
       </c>
       <c r="G46">
         <v>45</v>
@@ -1504,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="F47">
-        <v>305</v>
+        <v>12083</v>
       </c>
       <c r="G47">
         <v>46</v>
@@ -1527,7 +1527,7 @@
         <v>26</v>
       </c>
       <c r="F48">
-        <v>309</v>
+        <v>12166</v>
       </c>
       <c r="G48">
         <v>47</v>
@@ -1550,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="F49">
-        <v>313</v>
+        <v>12250</v>
       </c>
       <c r="G49">
         <v>48</v>
@@ -1573,7 +1573,7 @@
         <v>28</v>
       </c>
       <c r="F50">
-        <v>317</v>
+        <v>12333</v>
       </c>
       <c r="G50">
         <v>49</v>
@@ -1590,13 +1590,13 @@
         <v>31405800</v>
       </c>
       <c r="D51">
-        <v>172800</v>
+        <v>57600</v>
       </c>
       <c r="E51">
         <v>100</v>
       </c>
       <c r="F51">
-        <v>321</v>
+        <v>12416</v>
       </c>
       <c r="G51">
         <v>50</v>
@@ -1613,13 +1613,13 @@
         <v>33033000</v>
       </c>
       <c r="D52">
-        <v>172800</v>
+        <v>57600</v>
       </c>
       <c r="E52">
         <v>28</v>
       </c>
       <c r="F52">
-        <v>325</v>
+        <v>12500</v>
       </c>
       <c r="G52">
         <v>51</v>
@@ -1636,13 +1636,13 @@
         <v>34663800</v>
       </c>
       <c r="D53">
-        <v>172800</v>
+        <v>57600</v>
       </c>
       <c r="E53">
         <v>28</v>
       </c>
       <c r="F53">
-        <v>329</v>
+        <v>12583</v>
       </c>
       <c r="G53">
         <v>52</v>
@@ -1659,13 +1659,13 @@
         <v>36298200</v>
       </c>
       <c r="D54">
-        <v>172800</v>
+        <v>57600</v>
       </c>
       <c r="E54">
         <v>28</v>
       </c>
       <c r="F54">
-        <v>333</v>
+        <v>12666</v>
       </c>
       <c r="G54">
         <v>53</v>
@@ -1682,13 +1682,13 @@
         <v>37936200</v>
       </c>
       <c r="D55">
-        <v>172800</v>
+        <v>57600</v>
       </c>
       <c r="E55">
         <v>28</v>
       </c>
       <c r="F55">
-        <v>337</v>
+        <v>12749</v>
       </c>
       <c r="G55">
         <v>54</v>
@@ -1705,13 +1705,13 @@
         <v>39581400</v>
       </c>
       <c r="D56">
-        <v>259200</v>
+        <v>57600</v>
       </c>
       <c r="E56">
         <v>28</v>
       </c>
       <c r="F56">
-        <v>341</v>
+        <v>12833</v>
       </c>
       <c r="G56">
         <v>55</v>
@@ -1728,13 +1728,13 @@
         <v>41233800</v>
       </c>
       <c r="D57">
-        <v>259200</v>
+        <v>57600</v>
       </c>
       <c r="E57">
         <v>28</v>
       </c>
       <c r="F57">
-        <v>345</v>
+        <v>12916</v>
       </c>
       <c r="G57">
         <v>56</v>
@@ -1751,13 +1751,13 @@
         <v>42893400</v>
       </c>
       <c r="D58">
-        <v>259200</v>
+        <v>57600</v>
       </c>
       <c r="E58">
         <v>28</v>
       </c>
       <c r="F58">
-        <v>349</v>
+        <v>12999</v>
       </c>
       <c r="G58">
         <v>57</v>
@@ -1774,13 +1774,13 @@
         <v>44560200</v>
       </c>
       <c r="D59">
-        <v>259200</v>
+        <v>57600</v>
       </c>
       <c r="E59">
         <v>28</v>
       </c>
       <c r="F59">
-        <v>353</v>
+        <v>13083</v>
       </c>
       <c r="G59">
         <v>58</v>
@@ -1797,13 +1797,13 @@
         <v>46234200</v>
       </c>
       <c r="D60">
-        <v>259200</v>
+        <v>57600</v>
       </c>
       <c r="E60">
         <v>28</v>
       </c>
       <c r="F60">
-        <v>357</v>
+        <v>13166</v>
       </c>
       <c r="G60">
         <v>59</v>
@@ -1820,13 +1820,13 @@
         <v>47922600</v>
       </c>
       <c r="D61">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E61">
         <v>28</v>
       </c>
       <c r="F61">
-        <v>361</v>
+        <v>13249</v>
       </c>
       <c r="G61">
         <v>60</v>
@@ -1843,13 +1843,13 @@
         <v>49625400</v>
       </c>
       <c r="D62">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E62">
         <v>28</v>
       </c>
       <c r="F62">
-        <v>365</v>
+        <v>13333</v>
       </c>
       <c r="G62">
         <v>61</v>
@@ -1866,13 +1866,13 @@
         <v>51342600</v>
       </c>
       <c r="D63">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E63">
         <v>29</v>
       </c>
       <c r="F63">
-        <v>369</v>
+        <v>13416</v>
       </c>
       <c r="G63">
         <v>62</v>
@@ -1889,13 +1889,13 @@
         <v>53074200</v>
       </c>
       <c r="D64">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E64">
         <v>29</v>
       </c>
       <c r="F64">
-        <v>373</v>
+        <v>13499</v>
       </c>
       <c r="G64">
         <v>63</v>
@@ -1912,13 +1912,13 @@
         <v>54820200</v>
       </c>
       <c r="D65">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E65">
         <v>29</v>
       </c>
       <c r="F65">
-        <v>377</v>
+        <v>13583</v>
       </c>
       <c r="G65">
         <v>64</v>
@@ -1935,13 +1935,13 @@
         <v>56580600</v>
       </c>
       <c r="D66">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E66">
         <v>29</v>
       </c>
       <c r="F66">
-        <v>381</v>
+        <v>13666</v>
       </c>
       <c r="G66">
         <v>65</v>
@@ -1958,13 +1958,13 @@
         <v>58355400</v>
       </c>
       <c r="D67">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E67">
         <v>29</v>
       </c>
       <c r="F67">
-        <v>385</v>
+        <v>13749</v>
       </c>
       <c r="G67">
         <v>66</v>
@@ -1981,13 +1981,13 @@
         <v>60144600</v>
       </c>
       <c r="D68">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E68">
         <v>29</v>
       </c>
       <c r="F68">
-        <v>389</v>
+        <v>13833</v>
       </c>
       <c r="G68">
         <v>67</v>
@@ -2004,13 +2004,13 @@
         <v>61948200</v>
       </c>
       <c r="D69">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E69">
         <v>30</v>
       </c>
       <c r="F69">
-        <v>393</v>
+        <v>13916</v>
       </c>
       <c r="G69">
         <v>68</v>
@@ -2027,13 +2027,13 @@
         <v>63766200</v>
       </c>
       <c r="D70">
-        <v>345600</v>
+        <v>57600</v>
       </c>
       <c r="E70">
         <v>30</v>
       </c>
       <c r="F70">
-        <v>397</v>
+        <v>13999</v>
       </c>
       <c r="G70">
         <v>69</v>
@@ -2050,13 +2050,13 @@
         <v>65613000</v>
       </c>
       <c r="D71">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E71">
         <v>30</v>
       </c>
       <c r="F71">
-        <v>401</v>
+        <v>14083</v>
       </c>
       <c r="G71">
         <v>70</v>
@@ -2073,13 +2073,13 @@
         <v>67463400</v>
       </c>
       <c r="D72">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E72">
         <v>31</v>
       </c>
       <c r="F72">
-        <v>405</v>
+        <v>14166</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -2096,13 +2096,13 @@
         <v>69317400</v>
       </c>
       <c r="D73">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E73">
         <v>33</v>
       </c>
       <c r="F73">
-        <v>409</v>
+        <v>14249</v>
       </c>
       <c r="G73">
         <v>72</v>
@@ -2119,13 +2119,13 @@
         <v>71175000</v>
       </c>
       <c r="D74">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E74">
         <v>35</v>
       </c>
       <c r="F74">
-        <v>413</v>
+        <v>14333</v>
       </c>
       <c r="G74">
         <v>73</v>
@@ -2142,13 +2142,13 @@
         <v>73036200</v>
       </c>
       <c r="D75">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E75">
         <v>38</v>
       </c>
       <c r="F75">
-        <v>417</v>
+        <v>14416</v>
       </c>
       <c r="G75">
         <v>74</v>
@@ -2165,13 +2165,13 @@
         <v>74901000</v>
       </c>
       <c r="D76">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E76">
         <v>41</v>
       </c>
       <c r="F76">
-        <v>421</v>
+        <v>14499</v>
       </c>
       <c r="G76">
         <v>75</v>
@@ -2188,13 +2188,13 @@
         <v>76769400</v>
       </c>
       <c r="D77">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E77">
         <v>44</v>
       </c>
       <c r="F77">
-        <v>425</v>
+        <v>14583</v>
       </c>
       <c r="G77">
         <v>76</v>
@@ -2211,13 +2211,13 @@
         <v>78641400</v>
       </c>
       <c r="D78">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E78">
         <v>48</v>
       </c>
       <c r="F78">
-        <v>429</v>
+        <v>14666</v>
       </c>
       <c r="G78">
         <v>77</v>
@@ -2234,13 +2234,13 @@
         <v>80517000</v>
       </c>
       <c r="D79">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E79">
         <v>52</v>
       </c>
       <c r="F79">
-        <v>433</v>
+        <v>14749</v>
       </c>
       <c r="G79">
         <v>78</v>
@@ -2257,13 +2257,13 @@
         <v>82396200</v>
       </c>
       <c r="D80">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E80">
         <v>56</v>
       </c>
       <c r="F80">
-        <v>437</v>
+        <v>14833</v>
       </c>
       <c r="G80">
         <v>79</v>
@@ -2280,13 +2280,13 @@
         <v>84279000</v>
       </c>
       <c r="D81">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E81">
         <v>60</v>
       </c>
       <c r="F81">
-        <v>441</v>
+        <v>14916</v>
       </c>
       <c r="G81">
         <v>80</v>
@@ -2303,13 +2303,13 @@
         <v>86165400</v>
       </c>
       <c r="D82">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E82">
         <v>65</v>
       </c>
       <c r="F82">
-        <v>445</v>
+        <v>14999</v>
       </c>
       <c r="G82">
         <v>81</v>
@@ -2326,13 +2326,13 @@
         <v>88055400</v>
       </c>
       <c r="D83">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E83">
         <v>70</v>
       </c>
       <c r="F83">
-        <v>449</v>
+        <v>15083</v>
       </c>
       <c r="G83">
         <v>82</v>
@@ -2349,13 +2349,13 @@
         <v>89949000</v>
       </c>
       <c r="D84">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E84">
         <v>75</v>
       </c>
       <c r="F84">
-        <v>453</v>
+        <v>15166</v>
       </c>
       <c r="G84">
         <v>83</v>
@@ -2372,13 +2372,13 @@
         <v>91846200</v>
       </c>
       <c r="D85">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E85">
         <v>80</v>
       </c>
       <c r="F85">
-        <v>457</v>
+        <v>15249</v>
       </c>
       <c r="G85">
         <v>84</v>
@@ -2395,13 +2395,13 @@
         <v>93747000</v>
       </c>
       <c r="D86">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86">
-        <v>461</v>
+        <v>15333</v>
       </c>
       <c r="G86">
         <v>85</v>
@@ -2418,13 +2418,13 @@
         <v>95651400</v>
       </c>
       <c r="D87">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E87">
         <v>91</v>
       </c>
       <c r="F87">
-        <v>465</v>
+        <v>15416</v>
       </c>
       <c r="G87">
         <v>86</v>
@@ -2441,13 +2441,13 @@
         <v>97559400</v>
       </c>
       <c r="D88">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E88">
         <v>97</v>
       </c>
       <c r="F88">
-        <v>469</v>
+        <v>15499</v>
       </c>
       <c r="G88">
         <v>87</v>
@@ -2464,13 +2464,13 @@
         <v>99471000</v>
       </c>
       <c r="D89">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E89">
         <v>103</v>
       </c>
       <c r="F89">
-        <v>473</v>
+        <v>15583</v>
       </c>
       <c r="G89">
         <v>88</v>
@@ -2487,13 +2487,13 @@
         <v>101386200</v>
       </c>
       <c r="D90">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E90">
         <v>109</v>
       </c>
       <c r="F90">
-        <v>477</v>
+        <v>15666</v>
       </c>
       <c r="G90">
         <v>89</v>
@@ -2510,13 +2510,13 @@
         <v>103305000</v>
       </c>
       <c r="D91">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E91">
         <v>115</v>
       </c>
       <c r="F91">
-        <v>481</v>
+        <v>15749</v>
       </c>
       <c r="G91">
         <v>90</v>
@@ -2533,13 +2533,13 @@
         <v>105227400</v>
       </c>
       <c r="D92">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E92">
         <v>121</v>
       </c>
       <c r="F92">
-        <v>485</v>
+        <v>15833</v>
       </c>
       <c r="G92">
         <v>91</v>
@@ -2556,13 +2556,13 @@
         <v>107153400</v>
       </c>
       <c r="D93">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E93">
         <v>128</v>
       </c>
       <c r="F93">
-        <v>489</v>
+        <v>15916</v>
       </c>
       <c r="G93">
         <v>92</v>
@@ -2579,13 +2579,13 @@
         <v>109083000</v>
       </c>
       <c r="D94">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E94">
         <v>135</v>
       </c>
       <c r="F94">
-        <v>493</v>
+        <v>15999</v>
       </c>
       <c r="G94">
         <v>93</v>
@@ -2602,13 +2602,13 @@
         <v>111016200</v>
       </c>
       <c r="D95">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E95">
         <v>142</v>
       </c>
       <c r="F95">
-        <v>497</v>
+        <v>16083</v>
       </c>
       <c r="G95">
         <v>94</v>
@@ -2625,13 +2625,13 @@
         <v>112953000</v>
       </c>
       <c r="D96">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E96">
         <v>149</v>
       </c>
       <c r="F96">
-        <v>501</v>
+        <v>16166</v>
       </c>
       <c r="G96">
         <v>95</v>
@@ -2648,13 +2648,13 @@
         <v>114893400</v>
       </c>
       <c r="D97">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E97">
         <v>156</v>
       </c>
       <c r="F97">
-        <v>505</v>
+        <v>16249</v>
       </c>
       <c r="G97">
         <v>96</v>
@@ -2671,13 +2671,13 @@
         <v>116837400</v>
       </c>
       <c r="D98">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E98">
         <v>163</v>
       </c>
       <c r="F98">
-        <v>509</v>
+        <v>16333</v>
       </c>
       <c r="G98">
         <v>97</v>
@@ -2694,13 +2694,13 @@
         <v>118785000</v>
       </c>
       <c r="D99">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E99">
         <v>170</v>
       </c>
       <c r="F99">
-        <v>513</v>
+        <v>16416</v>
       </c>
       <c r="G99">
         <v>98</v>
@@ -2717,13 +2717,13 @@
         <v>120736200</v>
       </c>
       <c r="D100">
-        <v>432000</v>
+        <v>57600</v>
       </c>
       <c r="E100">
         <v>178</v>
       </c>
       <c r="F100">
-        <v>517</v>
+        <v>16499</v>
       </c>
       <c r="G100">
         <v>99</v>
@@ -2740,13 +2740,13 @@
         <v>131327400</v>
       </c>
       <c r="D101">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E101">
         <v>500</v>
       </c>
       <c r="F101">
-        <v>521</v>
+        <v>16583</v>
       </c>
       <c r="G101">
         <v>100</v>
@@ -2763,13 +2763,13 @@
         <v>133278600</v>
       </c>
       <c r="D102">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E102">
         <v>178</v>
       </c>
       <c r="F102">
-        <v>525</v>
+        <v>16666</v>
       </c>
       <c r="G102">
         <v>101</v>
@@ -2786,13 +2786,13 @@
         <v>135233400</v>
       </c>
       <c r="D103">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E103">
         <v>186</v>
       </c>
       <c r="F103">
-        <v>529</v>
+        <v>16749</v>
       </c>
       <c r="G103">
         <v>102</v>
@@ -2809,13 +2809,13 @@
         <v>137191800</v>
       </c>
       <c r="D104">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E104">
         <v>194</v>
       </c>
       <c r="F104">
-        <v>533</v>
+        <v>16833</v>
       </c>
       <c r="G104">
         <v>103</v>
@@ -2832,13 +2832,13 @@
         <v>139153800</v>
       </c>
       <c r="D105">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E105">
         <v>200</v>
       </c>
       <c r="F105">
-        <v>537</v>
+        <v>16916</v>
       </c>
       <c r="G105">
         <v>104</v>
@@ -2855,13 +2855,13 @@
         <v>141119400</v>
       </c>
       <c r="D106">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E106">
         <v>200</v>
       </c>
       <c r="F106">
-        <v>541</v>
+        <v>16999</v>
       </c>
       <c r="G106">
         <v>105</v>
@@ -2878,13 +2878,13 @@
         <v>143088600</v>
       </c>
       <c r="D107">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E107">
         <v>200</v>
       </c>
       <c r="F107">
-        <v>545</v>
+        <v>17083</v>
       </c>
       <c r="G107">
         <v>106</v>
@@ -2901,13 +2901,13 @@
         <v>145061400</v>
       </c>
       <c r="D108">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E108">
         <v>200</v>
       </c>
       <c r="F108">
-        <v>549</v>
+        <v>17166</v>
       </c>
       <c r="G108">
         <v>107</v>
@@ -2924,13 +2924,13 @@
         <v>147037800</v>
       </c>
       <c r="D109">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E109">
         <v>200</v>
       </c>
       <c r="F109">
-        <v>553</v>
+        <v>17249</v>
       </c>
       <c r="G109">
         <v>108</v>
@@ -2947,13 +2947,13 @@
         <v>149017800</v>
       </c>
       <c r="D110">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E110">
         <v>200</v>
       </c>
       <c r="F110">
-        <v>557</v>
+        <v>17333</v>
       </c>
       <c r="G110">
         <v>109</v>
@@ -2970,13 +2970,13 @@
         <v>151001400</v>
       </c>
       <c r="D111">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E111">
         <v>200</v>
       </c>
       <c r="F111">
-        <v>561</v>
+        <v>17416</v>
       </c>
       <c r="G111">
         <v>110</v>
@@ -2993,13 +2993,13 @@
         <v>152988600</v>
       </c>
       <c r="D112">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E112">
         <v>200</v>
       </c>
       <c r="F112">
-        <v>565</v>
+        <v>17499</v>
       </c>
       <c r="G112">
         <v>111</v>
@@ -3016,13 +3016,13 @@
         <v>154979400</v>
       </c>
       <c r="D113">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E113">
         <v>200</v>
       </c>
       <c r="F113">
-        <v>569</v>
+        <v>17583</v>
       </c>
       <c r="G113">
         <v>112</v>
@@ -3039,13 +3039,13 @@
         <v>156973800</v>
       </c>
       <c r="D114">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E114">
         <v>200</v>
       </c>
       <c r="F114">
-        <v>573</v>
+        <v>17666</v>
       </c>
       <c r="G114">
         <v>113</v>
@@ -3062,13 +3062,13 @@
         <v>158971800</v>
       </c>
       <c r="D115">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E115">
         <v>200</v>
       </c>
       <c r="F115">
-        <v>577</v>
+        <v>17749</v>
       </c>
       <c r="G115">
         <v>114</v>
@@ -3085,13 +3085,13 @@
         <v>160973400</v>
       </c>
       <c r="D116">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E116">
         <v>200</v>
       </c>
       <c r="F116">
-        <v>581</v>
+        <v>17833</v>
       </c>
       <c r="G116">
         <v>115</v>
@@ -3108,13 +3108,13 @@
         <v>162978600</v>
       </c>
       <c r="D117">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E117">
         <v>200</v>
       </c>
       <c r="F117">
-        <v>585</v>
+        <v>17916</v>
       </c>
       <c r="G117">
         <v>116</v>
@@ -3131,13 +3131,13 @@
         <v>164987400</v>
       </c>
       <c r="D118">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E118">
         <v>200</v>
       </c>
       <c r="F118">
-        <v>589</v>
+        <v>17999</v>
       </c>
       <c r="G118">
         <v>117</v>
@@ -3154,13 +3154,13 @@
         <v>166999800</v>
       </c>
       <c r="D119">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E119">
         <v>200</v>
       </c>
       <c r="F119">
-        <v>593</v>
+        <v>18083</v>
       </c>
       <c r="G119">
         <v>118</v>
@@ -3177,13 +3177,13 @@
         <v>169015800</v>
       </c>
       <c r="D120">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E120">
         <v>200</v>
       </c>
       <c r="F120">
-        <v>597</v>
+        <v>18166</v>
       </c>
       <c r="G120">
         <v>119</v>
@@ -3200,13 +3200,13 @@
         <v>171035400</v>
       </c>
       <c r="D121">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E121">
         <v>200</v>
       </c>
       <c r="F121">
-        <v>601</v>
+        <v>18249</v>
       </c>
       <c r="G121">
         <v>120</v>
@@ -3223,13 +3223,13 @@
         <v>173058600</v>
       </c>
       <c r="D122">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E122">
         <v>200</v>
       </c>
       <c r="F122">
-        <v>605</v>
+        <v>18333</v>
       </c>
       <c r="G122">
         <v>121</v>
@@ -3246,13 +3246,13 @@
         <v>175085400</v>
       </c>
       <c r="D123">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E123">
         <v>200</v>
       </c>
       <c r="F123">
-        <v>609</v>
+        <v>18416</v>
       </c>
       <c r="G123">
         <v>122</v>
@@ -3269,13 +3269,13 @@
         <v>177115800</v>
       </c>
       <c r="D124">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E124">
         <v>200</v>
       </c>
       <c r="F124">
-        <v>613</v>
+        <v>18499</v>
       </c>
       <c r="G124">
         <v>123</v>
@@ -3292,13 +3292,13 @@
         <v>179149800</v>
       </c>
       <c r="D125">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E125">
         <v>200</v>
       </c>
       <c r="F125">
-        <v>617</v>
+        <v>18583</v>
       </c>
       <c r="G125">
         <v>124</v>
@@ -3315,13 +3315,13 @@
         <v>181187400</v>
       </c>
       <c r="D126">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E126">
         <v>200</v>
       </c>
       <c r="F126">
-        <v>621</v>
+        <v>18666</v>
       </c>
       <c r="G126">
         <v>125</v>
@@ -3338,13 +3338,13 @@
         <v>183228600</v>
       </c>
       <c r="D127">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E127">
         <v>200</v>
       </c>
       <c r="F127">
-        <v>625</v>
+        <v>18749</v>
       </c>
       <c r="G127">
         <v>126</v>
@@ -3361,13 +3361,13 @@
         <v>185273400</v>
       </c>
       <c r="D128">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E128">
         <v>200</v>
       </c>
       <c r="F128">
-        <v>629</v>
+        <v>18833</v>
       </c>
       <c r="G128">
         <v>127</v>
@@ -3384,13 +3384,13 @@
         <v>187321800</v>
       </c>
       <c r="D129">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E129">
         <v>200</v>
       </c>
       <c r="F129">
-        <v>633</v>
+        <v>18916</v>
       </c>
       <c r="G129">
         <v>128</v>
@@ -3407,13 +3407,13 @@
         <v>189373800</v>
       </c>
       <c r="D130">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E130">
         <v>200</v>
       </c>
       <c r="F130">
-        <v>637</v>
+        <v>18999</v>
       </c>
       <c r="G130">
         <v>129</v>
@@ -3430,13 +3430,13 @@
         <v>191429400</v>
       </c>
       <c r="D131">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E131">
         <v>200</v>
       </c>
       <c r="F131">
-        <v>641</v>
+        <v>19083</v>
       </c>
       <c r="G131">
         <v>130</v>
@@ -3453,13 +3453,13 @@
         <v>193488600</v>
       </c>
       <c r="D132">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E132">
         <v>200</v>
       </c>
       <c r="F132">
-        <v>645</v>
+        <v>19166</v>
       </c>
       <c r="G132">
         <v>131</v>
@@ -3476,13 +3476,13 @@
         <v>195551400</v>
       </c>
       <c r="D133">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E133">
         <v>200</v>
       </c>
       <c r="F133">
-        <v>649</v>
+        <v>19249</v>
       </c>
       <c r="G133">
         <v>132</v>
@@ -3499,13 +3499,13 @@
         <v>197617800</v>
       </c>
       <c r="D134">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E134">
         <v>200</v>
       </c>
       <c r="F134">
-        <v>653</v>
+        <v>19333</v>
       </c>
       <c r="G134">
         <v>133</v>
@@ -3522,13 +3522,13 @@
         <v>199687800</v>
       </c>
       <c r="D135">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E135">
         <v>200</v>
       </c>
       <c r="F135">
-        <v>657</v>
+        <v>19416</v>
       </c>
       <c r="G135">
         <v>134</v>
@@ -3545,13 +3545,13 @@
         <v>201761400</v>
       </c>
       <c r="D136">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E136">
         <v>200</v>
       </c>
       <c r="F136">
-        <v>661</v>
+        <v>19499</v>
       </c>
       <c r="G136">
         <v>135</v>
@@ -3568,13 +3568,13 @@
         <v>203838600</v>
       </c>
       <c r="D137">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E137">
         <v>200</v>
       </c>
       <c r="F137">
-        <v>665</v>
+        <v>19583</v>
       </c>
       <c r="G137">
         <v>136</v>
@@ -3591,13 +3591,13 @@
         <v>205919400</v>
       </c>
       <c r="D138">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E138">
         <v>200</v>
       </c>
       <c r="F138">
-        <v>669</v>
+        <v>19666</v>
       </c>
       <c r="G138">
         <v>137</v>
@@ -3614,13 +3614,13 @@
         <v>208003800</v>
       </c>
       <c r="D139">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E139">
         <v>200</v>
       </c>
       <c r="F139">
-        <v>673</v>
+        <v>19749</v>
       </c>
       <c r="G139">
         <v>138</v>
@@ -3637,13 +3637,13 @@
         <v>210091800</v>
       </c>
       <c r="D140">
-        <v>518400</v>
+        <v>57600</v>
       </c>
       <c r="E140">
         <v>200</v>
       </c>
       <c r="F140">
-        <v>677</v>
+        <v>19833</v>
       </c>
       <c r="G140">
         <v>139</v>
@@ -3660,13 +3660,13 @@
         <v>212183400</v>
       </c>
       <c r="D141">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E141">
         <v>200</v>
       </c>
       <c r="F141">
-        <v>681</v>
+        <v>19916</v>
       </c>
       <c r="G141">
         <v>140</v>
@@ -3683,13 +3683,13 @@
         <v>214278600</v>
       </c>
       <c r="D142">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E142">
         <v>250</v>
       </c>
       <c r="F142">
-        <v>685</v>
+        <v>19999</v>
       </c>
       <c r="G142">
         <v>141</v>
@@ -3706,13 +3706,13 @@
         <v>216377400</v>
       </c>
       <c r="D143">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E143">
         <v>250</v>
       </c>
       <c r="F143">
-        <v>689</v>
+        <v>20083</v>
       </c>
       <c r="G143">
         <v>142</v>
@@ -3729,13 +3729,13 @@
         <v>218479800</v>
       </c>
       <c r="D144">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E144">
         <v>250</v>
       </c>
       <c r="F144">
-        <v>693</v>
+        <v>20166</v>
       </c>
       <c r="G144">
         <v>143</v>
@@ -3752,13 +3752,13 @@
         <v>220585800</v>
       </c>
       <c r="D145">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E145">
         <v>250</v>
       </c>
       <c r="F145">
-        <v>697</v>
+        <v>20249</v>
       </c>
       <c r="G145">
         <v>144</v>
@@ -3775,13 +3775,13 @@
         <v>222695400</v>
       </c>
       <c r="D146">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E146">
         <v>250</v>
       </c>
       <c r="F146">
-        <v>701</v>
+        <v>20333</v>
       </c>
       <c r="G146">
         <v>145</v>
@@ -3798,13 +3798,13 @@
         <v>224808600</v>
       </c>
       <c r="D147">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E147">
         <v>250</v>
       </c>
       <c r="F147">
-        <v>705</v>
+        <v>20416</v>
       </c>
       <c r="G147">
         <v>146</v>
@@ -3821,13 +3821,13 @@
         <v>226925400</v>
       </c>
       <c r="D148">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E148">
         <v>250</v>
       </c>
       <c r="F148">
-        <v>709</v>
+        <v>20499</v>
       </c>
       <c r="G148">
         <v>147</v>
@@ -3844,13 +3844,13 @@
         <v>229045800</v>
       </c>
       <c r="D149">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E149">
         <v>250</v>
       </c>
       <c r="F149">
-        <v>713</v>
+        <v>20583</v>
       </c>
       <c r="G149">
         <v>148</v>
@@ -3867,13 +3867,13 @@
         <v>231169800</v>
       </c>
       <c r="D150">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E150">
         <v>250</v>
       </c>
       <c r="F150">
-        <v>717</v>
+        <v>20666</v>
       </c>
       <c r="G150">
         <v>149</v>
@@ -3890,13 +3890,13 @@
         <v>241933800</v>
       </c>
       <c r="D151">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E151">
         <v>1000</v>
       </c>
       <c r="F151">
-        <v>721</v>
+        <v>20749</v>
       </c>
       <c r="G151">
         <v>150</v>
@@ -3913,13 +3913,13 @@
         <v>244057800</v>
       </c>
       <c r="D152">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E152">
         <v>300</v>
       </c>
       <c r="F152">
-        <v>725</v>
+        <v>20833</v>
       </c>
       <c r="G152">
         <v>151</v>
@@ -3936,13 +3936,13 @@
         <v>246185400</v>
       </c>
       <c r="D153">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E153">
         <v>300</v>
       </c>
       <c r="F153">
-        <v>729</v>
+        <v>20916</v>
       </c>
       <c r="G153">
         <v>152</v>
@@ -3959,13 +3959,13 @@
         <v>248316600</v>
       </c>
       <c r="D154">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E154">
         <v>300</v>
       </c>
       <c r="F154">
-        <v>733</v>
+        <v>20999</v>
       </c>
       <c r="G154">
         <v>153</v>
@@ -3982,13 +3982,13 @@
         <v>250451400</v>
       </c>
       <c r="D155">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E155">
         <v>300</v>
       </c>
       <c r="F155">
-        <v>737</v>
+        <v>21082</v>
       </c>
       <c r="G155">
         <v>154</v>
@@ -4005,13 +4005,13 @@
         <v>252589800</v>
       </c>
       <c r="D156">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E156">
         <v>300</v>
       </c>
       <c r="F156">
-        <v>741</v>
+        <v>21166</v>
       </c>
       <c r="G156">
         <v>155</v>
@@ -4028,13 +4028,13 @@
         <v>254731800</v>
       </c>
       <c r="D157">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E157">
         <v>300</v>
       </c>
       <c r="F157">
-        <v>745</v>
+        <v>21249</v>
       </c>
       <c r="G157">
         <v>156</v>
@@ -4051,13 +4051,13 @@
         <v>256877400</v>
       </c>
       <c r="D158">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E158">
         <v>300</v>
       </c>
       <c r="F158">
-        <v>749</v>
+        <v>21332</v>
       </c>
       <c r="G158">
         <v>157</v>
@@ -4074,13 +4074,13 @@
         <v>259026600</v>
       </c>
       <c r="D159">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E159">
         <v>300</v>
       </c>
       <c r="F159">
-        <v>753</v>
+        <v>21416</v>
       </c>
       <c r="G159">
         <v>158</v>
@@ -4097,13 +4097,13 @@
         <v>261179400</v>
       </c>
       <c r="D160">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E160">
         <v>300</v>
       </c>
       <c r="F160">
-        <v>757</v>
+        <v>21499</v>
       </c>
       <c r="G160">
         <v>159</v>
@@ -4120,13 +4120,13 @@
         <v>263335800</v>
       </c>
       <c r="D161">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E161">
         <v>300</v>
       </c>
       <c r="F161">
-        <v>761</v>
+        <v>21582</v>
       </c>
       <c r="G161">
         <v>160</v>
@@ -4143,13 +4143,13 @@
         <v>265495800</v>
       </c>
       <c r="D162">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E162">
         <v>300</v>
       </c>
       <c r="F162">
-        <v>765</v>
+        <v>21666</v>
       </c>
       <c r="G162">
         <v>161</v>
@@ -4166,13 +4166,13 @@
         <v>267659400</v>
       </c>
       <c r="D163">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E163">
         <v>300</v>
       </c>
       <c r="F163">
-        <v>769</v>
+        <v>21749</v>
       </c>
       <c r="G163">
         <v>162</v>
@@ -4189,13 +4189,13 @@
         <v>269826600</v>
       </c>
       <c r="D164">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E164">
         <v>300</v>
       </c>
       <c r="F164">
-        <v>773</v>
+        <v>21832</v>
       </c>
       <c r="G164">
         <v>163</v>
@@ -4212,13 +4212,13 @@
         <v>271997400</v>
       </c>
       <c r="D165">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E165">
         <v>300</v>
       </c>
       <c r="F165">
-        <v>777</v>
+        <v>21916</v>
       </c>
       <c r="G165">
         <v>164</v>
@@ -4235,13 +4235,13 @@
         <v>274171800</v>
       </c>
       <c r="D166">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E166">
         <v>300</v>
       </c>
       <c r="F166">
-        <v>781</v>
+        <v>21999</v>
       </c>
       <c r="G166">
         <v>165</v>
@@ -4258,13 +4258,13 @@
         <v>276349800</v>
       </c>
       <c r="D167">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E167">
         <v>300</v>
       </c>
       <c r="F167">
-        <v>785</v>
+        <v>22082</v>
       </c>
       <c r="G167">
         <v>166</v>
@@ -4281,13 +4281,13 @@
         <v>278531400</v>
       </c>
       <c r="D168">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E168">
         <v>300</v>
       </c>
       <c r="F168">
-        <v>789</v>
+        <v>22166</v>
       </c>
       <c r="G168">
         <v>167</v>
@@ -4304,13 +4304,13 @@
         <v>280716600</v>
       </c>
       <c r="D169">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E169">
         <v>300</v>
       </c>
       <c r="F169">
-        <v>793</v>
+        <v>22249</v>
       </c>
       <c r="G169">
         <v>168</v>
@@ -4327,13 +4327,13 @@
         <v>282905400</v>
       </c>
       <c r="D170">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E170">
         <v>300</v>
       </c>
       <c r="F170">
-        <v>797</v>
+        <v>22332</v>
       </c>
       <c r="G170">
         <v>169</v>
@@ -4350,13 +4350,13 @@
         <v>285097800</v>
       </c>
       <c r="D171">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E171">
         <v>300</v>
       </c>
       <c r="F171">
-        <v>801</v>
+        <v>22416</v>
       </c>
       <c r="G171">
         <v>170</v>
@@ -4373,13 +4373,13 @@
         <v>287293800</v>
       </c>
       <c r="D172">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E172">
         <v>300</v>
       </c>
       <c r="F172">
-        <v>805</v>
+        <v>22499</v>
       </c>
       <c r="G172">
         <v>171</v>
@@ -4396,13 +4396,13 @@
         <v>289493400</v>
       </c>
       <c r="D173">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E173">
         <v>300</v>
       </c>
       <c r="F173">
-        <v>809</v>
+        <v>22582</v>
       </c>
       <c r="G173">
         <v>172</v>
@@ -4419,13 +4419,13 @@
         <v>291696600</v>
       </c>
       <c r="D174">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E174">
         <v>300</v>
       </c>
       <c r="F174">
-        <v>813</v>
+        <v>22666</v>
       </c>
       <c r="G174">
         <v>173</v>
@@ -4442,13 +4442,13 @@
         <v>293903400</v>
       </c>
       <c r="D175">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E175">
         <v>300</v>
       </c>
       <c r="F175">
-        <v>817</v>
+        <v>22749</v>
       </c>
       <c r="G175">
         <v>174</v>
@@ -4465,13 +4465,13 @@
         <v>296113800</v>
       </c>
       <c r="D176">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E176">
         <v>300</v>
       </c>
       <c r="F176">
-        <v>821</v>
+        <v>22832</v>
       </c>
       <c r="G176">
         <v>175</v>
@@ -4488,13 +4488,13 @@
         <v>298327800</v>
       </c>
       <c r="D177">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E177">
         <v>300</v>
       </c>
       <c r="F177">
-        <v>825</v>
+        <v>22916</v>
       </c>
       <c r="G177">
         <v>176</v>
@@ -4511,13 +4511,13 @@
         <v>300545400</v>
       </c>
       <c r="D178">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E178">
         <v>300</v>
       </c>
       <c r="F178">
-        <v>829</v>
+        <v>22999</v>
       </c>
       <c r="G178">
         <v>177</v>
@@ -4534,13 +4534,13 @@
         <v>302766600</v>
       </c>
       <c r="D179">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E179">
         <v>300</v>
       </c>
       <c r="F179">
-        <v>833</v>
+        <v>23082</v>
       </c>
       <c r="G179">
         <v>178</v>
@@ -4557,13 +4557,13 @@
         <v>304991400</v>
       </c>
       <c r="D180">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E180">
         <v>300</v>
       </c>
       <c r="F180">
-        <v>837</v>
+        <v>23166</v>
       </c>
       <c r="G180">
         <v>179</v>
@@ -4580,13 +4580,13 @@
         <v>307219800</v>
       </c>
       <c r="D181">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E181">
         <v>300</v>
       </c>
       <c r="F181">
-        <v>841</v>
+        <v>23249</v>
       </c>
       <c r="G181">
         <v>180</v>
@@ -4603,13 +4603,13 @@
         <v>309451800</v>
       </c>
       <c r="D182">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E182">
         <v>400</v>
       </c>
       <c r="F182">
-        <v>845</v>
+        <v>23332</v>
       </c>
       <c r="G182">
         <v>181</v>
@@ -4626,13 +4626,13 @@
         <v>311687400</v>
       </c>
       <c r="D183">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E183">
         <v>400</v>
       </c>
       <c r="F183">
-        <v>849</v>
+        <v>23416</v>
       </c>
       <c r="G183">
         <v>182</v>
@@ -4649,13 +4649,13 @@
         <v>313926600</v>
       </c>
       <c r="D184">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E184">
         <v>400</v>
       </c>
       <c r="F184">
-        <v>853</v>
+        <v>23499</v>
       </c>
       <c r="G184">
         <v>183</v>
@@ -4672,13 +4672,13 @@
         <v>316169400</v>
       </c>
       <c r="D185">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E185">
         <v>400</v>
       </c>
       <c r="F185">
-        <v>857</v>
+        <v>23582</v>
       </c>
       <c r="G185">
         <v>184</v>
@@ -4695,13 +4695,13 @@
         <v>318415800</v>
       </c>
       <c r="D186">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E186">
         <v>400</v>
       </c>
       <c r="F186">
-        <v>861</v>
+        <v>23666</v>
       </c>
       <c r="G186">
         <v>185</v>
@@ -4718,13 +4718,13 @@
         <v>320665800</v>
       </c>
       <c r="D187">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E187">
         <v>400</v>
       </c>
       <c r="F187">
-        <v>865</v>
+        <v>23749</v>
       </c>
       <c r="G187">
         <v>186</v>
@@ -4741,13 +4741,13 @@
         <v>322919400</v>
       </c>
       <c r="D188">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E188">
         <v>400</v>
       </c>
       <c r="F188">
-        <v>869</v>
+        <v>23832</v>
       </c>
       <c r="G188">
         <v>187</v>
@@ -4764,13 +4764,13 @@
         <v>325176600</v>
       </c>
       <c r="D189">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E189">
         <v>400</v>
       </c>
       <c r="F189">
-        <v>873</v>
+        <v>23916</v>
       </c>
       <c r="G189">
         <v>188</v>
@@ -4787,13 +4787,13 @@
         <v>327437400</v>
       </c>
       <c r="D190">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E190">
         <v>400</v>
       </c>
       <c r="F190">
-        <v>877</v>
+        <v>23999</v>
       </c>
       <c r="G190">
         <v>189</v>
@@ -4810,13 +4810,13 @@
         <v>329701800</v>
       </c>
       <c r="D191">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E191">
         <v>400</v>
       </c>
       <c r="F191">
-        <v>881</v>
+        <v>24082</v>
       </c>
       <c r="G191">
         <v>190</v>
@@ -4833,13 +4833,13 @@
         <v>331969800</v>
       </c>
       <c r="D192">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E192">
         <v>400</v>
       </c>
       <c r="F192">
-        <v>885</v>
+        <v>24166</v>
       </c>
       <c r="G192">
         <v>191</v>
@@ -4856,13 +4856,13 @@
         <v>334241400</v>
       </c>
       <c r="D193">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E193">
         <v>400</v>
       </c>
       <c r="F193">
-        <v>889</v>
+        <v>24249</v>
       </c>
       <c r="G193">
         <v>192</v>
@@ -4879,13 +4879,13 @@
         <v>336516600</v>
       </c>
       <c r="D194">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E194">
         <v>400</v>
       </c>
       <c r="F194">
-        <v>893</v>
+        <v>24332</v>
       </c>
       <c r="G194">
         <v>193</v>
@@ -4902,13 +4902,13 @@
         <v>338795400</v>
       </c>
       <c r="D195">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E195">
         <v>400</v>
       </c>
       <c r="F195">
-        <v>897</v>
+        <v>24416</v>
       </c>
       <c r="G195">
         <v>194</v>
@@ -4925,13 +4925,13 @@
         <v>341077800</v>
       </c>
       <c r="D196">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E196">
         <v>400</v>
       </c>
       <c r="F196">
-        <v>901</v>
+        <v>24499</v>
       </c>
       <c r="G196">
         <v>195</v>
@@ -4948,13 +4948,13 @@
         <v>343363800</v>
       </c>
       <c r="D197">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E197">
         <v>400</v>
       </c>
       <c r="F197">
-        <v>905</v>
+        <v>24582</v>
       </c>
       <c r="G197">
         <v>196</v>
@@ -4971,13 +4971,13 @@
         <v>345653400</v>
       </c>
       <c r="D198">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E198">
         <v>400</v>
       </c>
       <c r="F198">
-        <v>909</v>
+        <v>24666</v>
       </c>
       <c r="G198">
         <v>197</v>
@@ -4994,13 +4994,13 @@
         <v>347946600</v>
       </c>
       <c r="D199">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E199">
         <v>400</v>
       </c>
       <c r="F199">
-        <v>913</v>
+        <v>24749</v>
       </c>
       <c r="G199">
         <v>198</v>
@@ -5017,13 +5017,13 @@
         <v>350243400</v>
       </c>
       <c r="D200">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E200">
         <v>400</v>
       </c>
       <c r="F200">
-        <v>917</v>
+        <v>24832</v>
       </c>
       <c r="G200">
         <v>199</v>
@@ -5040,13 +5040,13 @@
         <v>361180200</v>
       </c>
       <c r="D201">
-        <v>604800</v>
+        <v>57600</v>
       </c>
       <c r="E201">
         <v>2000</v>
       </c>
       <c r="F201">
-        <v>921</v>
+        <v>24916</v>
       </c>
       <c r="G201">
         <v>200</v>

--- a/Excel/Analysis.xlsx
+++ b/Excel/Analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355EC27-83D1-4BB5-B2A1-5DEF221C3C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41BC48-BFB9-4131-BE41-CC3E2448890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisTable" sheetId="1" r:id="rId1"/>
     <sheet name="AnalysisDropTable" sheetId="2" r:id="rId2"/>
+    <sheet name="AnalysisBoostTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>level|Int</t>
   </si>
@@ -82,6 +83,24 @@
   </si>
   <si>
     <t>maxValue|float</t>
+  </si>
+  <si>
+    <t>index|Int</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+  </si>
+  <si>
+    <t>analysisboost_1</t>
+  </si>
+  <si>
+    <t>analysisboost_2</t>
+  </si>
+  <si>
+    <t>analysisboost_3</t>
   </si>
 </sst>
 </file>
@@ -447,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A74694E-A013-4A06-8E1C-D289564E2919}">
   <dimension ref="A1:K2102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -74036,7 +74055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD813A3-3DD6-4394-8A90-A19C0FED1594}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -74131,4 +74150,67 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD11211-4631-4F1A-AF88-D484B571828C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>86400</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>604800</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2592000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Analysis.xlsx
+++ b/Excel/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41BC48-BFB9-4131-BE41-CC3E2448890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADBBB5-D5EC-4C32-99E7-0B8C2D56BB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisTable" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,6 @@
     <t>probability|float</t>
   </si>
   <si>
-    <t>minValue|float</t>
-  </si>
-  <si>
-    <t>maxValue|float</t>
-  </si>
-  <si>
     <t>index|Int</t>
   </si>
   <si>
@@ -101,6 +95,14 @@
   </si>
   <si>
     <t>analysisboost_3</t>
+  </si>
+  <si>
+    <t>minValue|int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxValue|int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A74694E-A013-4A06-8E1C-D289564E2919}">
   <dimension ref="A1:K2102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -74055,7 +74057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD813A3-3DD6-4394-8A90-A19C0FED1594}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -74070,10 +74072,10 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -74149,6 +74151,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -74167,13 +74170,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -74184,7 +74187,7 @@
         <v>86400</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -74195,7 +74198,7 @@
         <v>604800</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -74206,7 +74209,7 @@
         <v>2592000</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Analysis.xlsx
+++ b/Excel/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADBBB5-D5EC-4C32-99E7-0B8C2D56BB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799FA807-B7FD-4D16-97AA-752F5038FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{6D0E1F61-3D22-4E23-AB0C-80D0B6B47F28}"/>
   </bookViews>
   <sheets>
     <sheet name="AnalysisTable" sheetId="1" r:id="rId1"/>
@@ -74057,7 +74057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD813A3-3DD6-4394-8A90-A19C0FED1594}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -74159,9 +74159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD11211-4631-4F1A-AF88-D484B571828C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -74184,7 +74182,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86400</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -74195,7 +74193,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>604800</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -74206,7 +74204,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2592000</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
